--- a/ft_data/ethereum_price_info.xlsx
+++ b/ft_data/ethereum_price_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2352"/>
+  <dimension ref="A1:G2353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59245,6 +59245,31 @@
         <v>401752380545.64</v>
       </c>
     </row>
+    <row r="2353">
+      <c r="A2353" t="inlineStr">
+        <is>
+          <t>2022-01-13</t>
+        </is>
+      </c>
+      <c r="B2353" t="n">
+        <v>3372.104952721625</v>
+      </c>
+      <c r="C2353" t="n">
+        <v>3396.969711742317</v>
+      </c>
+      <c r="D2353" t="n">
+        <v>3247.917427719522</v>
+      </c>
+      <c r="E2353" t="n">
+        <v>3248.288475801991</v>
+      </c>
+      <c r="F2353" t="n">
+        <v>15294466274.57</v>
+      </c>
+      <c r="G2353" t="n">
+        <v>387027270411.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
